--- a/Аспекты тестов/Набор тестов для функции stripRight.xlsx
+++ b/Аспекты тестов/Набор тестов для функции stripRight.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_projects\Programming\18_Korshunov\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_projects\Programming\18_Korshunov\Аспекты тестов\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -174,7 +174,19 @@
     <t>Заполненность строки</t>
   </si>
   <si>
-    <t>Строка пустая, строка не пустая</t>
+    <r>
+      <t xml:space="preserve">Строка пустая, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>строка не пустая</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -792,7 +804,7 @@
   <dimension ref="A1:IV20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -5986,7 +5998,7 @@
   <dimension ref="A1:IV16"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
